--- a/AdminExam/uploads/2023.09.05 - 04.39.35pm.xlsx
+++ b/AdminExam/uploads/2023.09.05 - 04.39.35pm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsaya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nipun\Downloads\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7291CF8A-82A1-4280-9CE0-B03B582C5EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE00160-4779-481C-AB90-8E430132522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDA1E96D-C723-42FB-BA89-C5205979A7DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EDA1E96D-C723-42FB-BA89-C5205979A7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>2020/CSC/021</t>
   </si>
   <si>
     <t>Vithu Siva</t>
-  </si>
-  <si>
-    <t>Science</t>
   </si>
   <si>
     <t>Computer Science</t>
@@ -423,25 +420,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9A0029-15AD-4435-AF18-6F5C9A3F00D7}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,34 +457,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1">
+        <v>1234567890</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1">
-        <v>1234567890</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1">
+        <v>3.05</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1">
-        <v>3.05</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I1" r:id="rId1" xr:uid="{4DF7E443-3AFA-486C-BE70-C54395897BEB}"/>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{4DF7E443-3AFA-486C-BE70-C54395897BEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
